--- a/data/trans_bre/P2A_fisi_R-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P2A_fisi_R-Provincia-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -668,7 +668,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-3,38; 2,23</t>
+          <t>-3,21; 2,49</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -678,17 +678,17 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-1,31; 7,49</t>
+          <t>-1,15; 7,52</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-3,55; 5,05</t>
+          <t>-3,69; 5,43</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-79,25; 170,8</t>
+          <t>-76,23; 204,14</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -698,12 +698,12 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-19,03; 194,77</t>
+          <t>-17,21; 204,13</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-27,19; 70,79</t>
+          <t>-29,14; 77,62</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-3,64; 3,46</t>
+          <t>-3,67; 3,1</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-3,67; 3,53</t>
+          <t>-3,48; 3,53</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-1,5; 3,1</t>
+          <t>-1,4; 3,59</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-7,96; 1,94</t>
+          <t>-7,1; 2,04</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-36,24; 57,0</t>
+          <t>-37,99; 53,88</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-37,71; 54,09</t>
+          <t>-35,14; 59,43</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-37,03; 145,9</t>
+          <t>-36,64; 155,76</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-36,31; 13,18</t>
+          <t>-33,67; 13,15</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-1,65; 3,24</t>
+          <t>-1,76; 3,0</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-3,87; 4,56</t>
+          <t>-3,93; 5,03</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-0,16; 4,39</t>
+          <t>-0,02; 4,48</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-6,38; 2,55</t>
+          <t>-6,51; 2,35</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-55,6; 332,72</t>
+          <t>-64,61; 294,33</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-42,24; 86,7</t>
+          <t>-40,5; 91,87</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-20,63; 575,91</t>
+          <t>-19,7; 573,97</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-41,54; 22,61</t>
+          <t>-41,6; 23,14</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-0,18; 5,47</t>
+          <t>-0,24; 5,18</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>1,26; 7,46</t>
+          <t>0,97; 7,17</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-1,91; 7,1</t>
+          <t>-1,16; 7,44</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-7,48; 1,42</t>
+          <t>-7,03; 1,62</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-13,03; 403,13</t>
+          <t>-15,15; 374,7</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>13,99; 128,02</t>
+          <t>10,0; 131,99</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-20,07; 106,07</t>
+          <t>-15,37; 115,93</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-65,38; 34,36</t>
+          <t>-64,74; 40,95</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-3,86; 7,54</t>
+          <t>-4,38; 7,06</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-0,71; 13,75</t>
+          <t>-0,46; 13,78</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-5,13; 4,51</t>
+          <t>-5,17; 5,24</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-4,01; 4,44</t>
+          <t>-3,8; 4,2</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-36,89; 130,18</t>
+          <t>-38,56; 120,69</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-8,17; 142,27</t>
+          <t>-5,21; 138,21</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-54,01; 99,62</t>
+          <t>-53,39; 120,93</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-39,98; 87,72</t>
+          <t>-40,11; 85,0</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0,01; 4,13</t>
+          <t>-0,07; 4,51</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0,66; 10,3</t>
+          <t>1,04; 10,59</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-4,22; 5,77</t>
+          <t>-4,03; 6,4</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-8,88; 3,75</t>
+          <t>-8,39; 3,27</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-51,92; —</t>
+          <t>-59,8; —</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>0,79; 260,89</t>
+          <t>8,43; 259,21</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-40,0; 89,17</t>
+          <t>-37,02; 102,09</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-35,24; 20,4</t>
+          <t>-33,06; 17,45</t>
         </is>
       </c>
     </row>
@@ -1268,42 +1268,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-2,72; 2,64</t>
+          <t>-2,55; 2,45</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-1,97; 3,86</t>
+          <t>-2,06; 4,35</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-0,62; 4,45</t>
+          <t>-0,76; 4,35</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0,67; 44,23</t>
+          <t>0,75; 43,12</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-39,66; 59,59</t>
+          <t>-38,4; 57,69</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-24,01; 66,16</t>
+          <t>-26,37; 83,68</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-14,17; 139,02</t>
+          <t>-17,21; 136,94</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>5,95; 444,8</t>
+          <t>4,68; 425,12</t>
         </is>
       </c>
     </row>
@@ -1368,42 +1368,42 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-0,11; 5,59</t>
+          <t>0,17; 5,9</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-2,99; 2,07</t>
+          <t>-3,07; 2,16</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-2,4; 3,07</t>
+          <t>-2,2; 3,51</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>0,07; 5,11</t>
+          <t>0,0; 5,01</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-1,53; 112,97</t>
+          <t>0,64; 108,86</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-37,66; 40,46</t>
+          <t>-38,33; 41,97</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-29,06; 54,21</t>
+          <t>-25,71; 58,57</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-0,04; 103,24</t>
+          <t>-0,35; 103,0</t>
         </is>
       </c>
     </row>
@@ -1468,42 +1468,42 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>0,08; 2,35</t>
+          <t>-0,01; 2,35</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>0,48; 3,14</t>
+          <t>0,51; 3,25</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>0,18; 2,65</t>
+          <t>0,18; 2,52</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-0,7; 11,37</t>
+          <t>-0,59; 11,11</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>1,22; 52,82</t>
+          <t>-0,71; 53,15</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>6,16; 48,07</t>
+          <t>6,25; 48,27</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>2,77; 52,06</t>
+          <t>3,05; 51,21</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-6,21; 100,37</t>
+          <t>-5,67; 102,8</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P2A_fisi_R-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P2A_fisi_R-Provincia-trans_bre.xlsx
@@ -625,7 +625,7 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>5,28</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
@@ -635,7 +635,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,92</t>
+          <t>1,01</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -645,7 +645,7 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>67,4%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -655,7 +655,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>9,09%</t>
+          <t>10,6%</t>
         </is>
       </c>
     </row>
@@ -673,7 +673,7 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,19; 10,81</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -683,7 +683,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-3,69; 5,43</t>
+          <t>-3,51; 5,47</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -693,7 +693,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,49; 193,6</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -703,7 +703,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-29,14; 77,62</t>
+          <t>-29,31; 82,38</t>
         </is>
       </c>
     </row>
@@ -735,7 +735,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-2,35</t>
+          <t>-1,72</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -755,7 +755,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-12,98%</t>
+          <t>-10,04%</t>
         </is>
       </c>
     </row>
@@ -783,7 +783,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-7,1; 2,04</t>
+          <t>-6,53; 2,62</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -803,7 +803,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-33,67; 13,15</t>
+          <t>-31,81; 18,48</t>
         </is>
       </c>
     </row>
@@ -835,7 +835,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-1,95</t>
+          <t>-1,8</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -855,7 +855,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-15,07%</t>
+          <t>-14,13%</t>
         </is>
       </c>
     </row>
@@ -883,7 +883,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-6,51; 2,35</t>
+          <t>-6,4; 2,42</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -903,7 +903,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-41,6; 23,14</t>
+          <t>-41,01; 25,22</t>
         </is>
       </c>
     </row>
@@ -920,12 +920,12 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>2,48</t>
+          <t>2,73</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>4,27</t>
+          <t>3,57</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
@@ -935,17 +935,17 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-2,46</t>
+          <t>-2,96</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>107,73%</t>
+          <t>118,89%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>63,13%</t>
+          <t>60,41%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -955,7 +955,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-33,41%</t>
+          <t>-43,56%</t>
         </is>
       </c>
     </row>
@@ -968,12 +968,12 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-0,24; 5,18</t>
+          <t>-0,05; 5,52</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,97; 7,17</t>
+          <t>-0,43; 7,71</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -983,17 +983,17 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-7,03; 1,62</t>
+          <t>-7,18; 0,82</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-15,15; 374,7</t>
+          <t>-6,59; 403,96</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>10,0; 131,99</t>
+          <t>-7,93; 190,16</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1003,7 +1003,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-64,74; 40,95</t>
+          <t>-72,14; 20,09</t>
         </is>
       </c>
     </row>
@@ -1035,7 +1035,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,53</t>
+          <t>-0,13</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1055,7 +1055,7 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>7,25%</t>
+          <t>-1,78%</t>
         </is>
       </c>
     </row>
@@ -1083,7 +1083,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-3,8; 4,2</t>
+          <t>-5,09; 3,74</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1103,7 +1103,7 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-40,11; 85,0</t>
+          <t>-52,49; 74,65</t>
         </is>
       </c>
     </row>
@@ -1135,7 +1135,7 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-2,36</t>
+          <t>-1,5</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -1155,7 +1155,7 @@
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>-10,69%</t>
+          <t>-7,1%</t>
         </is>
       </c>
     </row>
@@ -1183,7 +1183,7 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-8,39; 3,27</t>
+          <t>-7,17; 4,17</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1203,7 +1203,7 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-33,06; 17,45</t>
+          <t>-30,23; 24,22</t>
         </is>
       </c>
     </row>
@@ -1220,7 +1220,7 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-0,06</t>
+          <t>0,09</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
@@ -1235,12 +1235,12 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>13,71</t>
+          <t>22,92</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-1,0%</t>
+          <t>1,52%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
@@ -1255,7 +1255,7 @@
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>120,3%</t>
+          <t>207,32%</t>
         </is>
       </c>
     </row>
@@ -1268,7 +1268,7 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-2,55; 2,45</t>
+          <t>-2,52; 2,58</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
@@ -1283,12 +1283,12 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0,75; 43,12</t>
+          <t>0,96; 58,07</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-38,4; 57,69</t>
+          <t>-37,37; 60,79</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
@@ -1303,7 +1303,7 @@
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>4,68; 425,12</t>
+          <t>6,94; 588,72</t>
         </is>
       </c>
     </row>
@@ -1335,7 +1335,7 @@
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>2,66</t>
+          <t>3,77</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -1355,7 +1355,7 @@
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>42,25%</t>
+          <t>81,25%</t>
         </is>
       </c>
     </row>
@@ -1383,7 +1383,7 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,01</t>
+          <t>1,15; 7,41</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -1403,7 +1403,7 @@
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-0,35; 103,0</t>
+          <t>13,53; 296,05</t>
         </is>
       </c>
     </row>
@@ -1420,7 +1420,7 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>1,21</t>
+          <t>1,27</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
@@ -1435,12 +1435,12 @@
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>2,48</t>
+          <t>5,27</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>24,26%</t>
+          <t>25,36%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
@@ -1455,7 +1455,7 @@
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>21,72%</t>
+          <t>50,39%</t>
         </is>
       </c>
     </row>
@@ -1468,7 +1468,7 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-0,01; 2,35</t>
+          <t>0,04; 2,4</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
@@ -1483,12 +1483,12 @@
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-0,59; 11,11</t>
+          <t>-0,4; 20,25</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-0,71; 53,15</t>
+          <t>0,69; 54,46</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
@@ -1503,7 +1503,7 @@
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-5,67; 102,8</t>
+          <t>-4,4; 205,73</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P2A_fisi_R-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P2A_fisi_R-Provincia-trans_bre.xlsx
@@ -530,7 +530,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Hogares con personas con limitación, discapacidad física</t>
+          <t>Hogares con personas con limitación por discapacidad física</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -668,49 +668,49 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-3,21; 2,49</t>
+          <t>-3,48; 2,12</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,19; 10,81</t>
+          <t>-0,23; 10,21</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-1,15; 7,52</t>
+          <t>-1,15; 8,29</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-3,51; 5,47</t>
+          <t>-3,35; 5,14</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-76,23; 204,14</t>
+          <t>-81,49; 166,83</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-1,49; 193,6</t>
+          <t>-7,51; 166,42</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-17,21; 204,13</t>
+          <t>-18,45; 232,12</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-29,31; 82,38</t>
+          <t>-27,81; 76,81</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -768,49 +768,49 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-3,67; 3,1</t>
+          <t>-3,72; 3,38</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-3,48; 3,53</t>
+          <t>-3,59; 3,53</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-1,4; 3,59</t>
+          <t>-1,83; 3,11</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-6,53; 2,62</t>
+          <t>-6,4; 2,65</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-37,99; 53,88</t>
+          <t>-38,12; 60,42</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-35,14; 59,43</t>
+          <t>-35,98; 60,58</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-36,64; 155,76</t>
+          <t>-40,37; 139,7</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-31,81; 18,48</t>
+          <t>-31,41; 18,63</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-1,76; 3,0</t>
+          <t>-1,77; 3,36</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-3,93; 5,03</t>
+          <t>-3,63; 4,78</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-0,02; 4,48</t>
+          <t>-0,32; 4,47</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-6,4; 2,42</t>
+          <t>-6,43; 2,72</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-64,61; 294,33</t>
+          <t>-57,96; 253,23</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-40,5; 91,87</t>
+          <t>-38,68; 96,39</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-19,7; 573,97</t>
+          <t>-22,08; 722,83</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-41,01; 25,22</t>
+          <t>-41,88; 27,55</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-0,05; 5,52</t>
+          <t>0,16; 5,38</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-0,43; 7,71</t>
+          <t>-0,36; 7,52</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-1,16; 7,44</t>
+          <t>-1,65; 7,4</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-7,18; 0,82</t>
+          <t>-8,36; 0,32</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-6,59; 403,96</t>
+          <t>-0,82; 434,71</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-7,93; 190,16</t>
+          <t>-7,13; 177,69</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-15,37; 115,93</t>
+          <t>-16,87; 116,04</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-72,14; 20,09</t>
+          <t>-75,74; 14,1</t>
         </is>
       </c>
     </row>
@@ -1068,49 +1068,49 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-4,38; 7,06</t>
+          <t>-4,01; 7,36</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-0,46; 13,78</t>
+          <t>-0,32; 13,62</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-5,17; 5,24</t>
+          <t>-4,88; 4,66</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-5,09; 3,74</t>
+          <t>-4,81; 3,67</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-38,56; 120,69</t>
+          <t>-38,73; 125,81</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-5,21; 138,21</t>
+          <t>-4,17; 146,14</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-53,39; 120,93</t>
+          <t>-53,19; 112,56</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-52,49; 74,65</t>
+          <t>-49,6; 72,24</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1168,49 +1168,49 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-0,07; 4,51</t>
+          <t>0,01; 4,44</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>1,04; 10,59</t>
+          <t>-0,02; 9,81</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-4,03; 6,4</t>
+          <t>-4,29; 6,06</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-7,17; 4,17</t>
+          <t>-7,26; 4,68</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-59,8; —</t>
+          <t>-55,53; —</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>8,43; 259,21</t>
+          <t>-4,06; 238,36</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-37,02; 102,09</t>
+          <t>-40,91; 100,55</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-30,23; 24,22</t>
+          <t>-29,97; 26,01</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1268,42 +1268,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-2,52; 2,58</t>
+          <t>-2,65; 2,96</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-2,06; 4,35</t>
+          <t>-2,5; 3,85</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-0,76; 4,35</t>
+          <t>-0,57; 4,65</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0,96; 58,07</t>
+          <t>0,66; 52,05</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-37,37; 60,79</t>
+          <t>-38,12; 65,56</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-26,37; 83,68</t>
+          <t>-29,7; 74,84</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-17,21; 136,94</t>
+          <t>-11,82; 151,32</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>6,94; 588,72</t>
+          <t>5,27; 572,25</t>
         </is>
       </c>
     </row>
@@ -1368,42 +1368,42 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>0,17; 5,9</t>
+          <t>-0,06; 5,55</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-3,07; 2,16</t>
+          <t>-3,15; 2,27</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-2,2; 3,51</t>
+          <t>-2,33; 3,27</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>1,15; 7,41</t>
+          <t>1,19; 7,69</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>0,64; 108,86</t>
+          <t>-1,3; 102,51</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-38,33; 41,97</t>
+          <t>-39,33; 45,08</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-25,71; 58,57</t>
+          <t>-29,41; 55,56</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>13,53; 296,05</t>
+          <t>16,54; 282,57</t>
         </is>
       </c>
     </row>
@@ -1468,42 +1468,42 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>0,04; 2,4</t>
+          <t>0,04; 2,35</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>0,51; 3,25</t>
+          <t>0,28; 3,02</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>0,18; 2,52</t>
+          <t>0,15; 2,56</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-0,4; 20,25</t>
+          <t>-0,38; 21,24</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>0,69; 54,46</t>
+          <t>0,62; 53,59</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>6,25; 48,27</t>
+          <t>3,63; 45,39</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>3,05; 51,21</t>
+          <t>2,38; 51,15</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-4,4; 205,73</t>
+          <t>-3,54; 212,75</t>
         </is>
       </c>
     </row>
